--- a/com.Ecommerce/src/main/resources/TestData/TestDataDemo.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/TestDataDemo.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -45,6 +46,48 @@
   </si>
   <si>
     <t>vidhu@123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>jhgbvc@gmail.com</t>
+  </si>
+  <si>
+    <t>kjhgf</t>
+  </si>
+  <si>
+    <t>zxcvb@gmail.com</t>
+  </si>
+  <si>
+    <t>jdhcxud</t>
+  </si>
+  <si>
+    <t>fgsyxsh@gmail.com</t>
+  </si>
+  <si>
+    <t>hbcxhd</t>
+  </si>
+  <si>
+    <t>dxbgdjh@gmail.com</t>
+  </si>
+  <si>
+    <t>sjhgxhdg</t>
+  </si>
+  <si>
+    <t>dhvd@gmail.com</t>
+  </si>
+  <si>
+    <t>jdbcjd</t>
+  </si>
+  <si>
+    <t>dhbxhdxh@gmail.com</t>
+  </si>
+  <si>
+    <t>hgxhd</t>
   </si>
 </sst>
 </file>
@@ -404,12 +447,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,7 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,34 +606,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,8 +718,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
@@ -1202,7 +1266,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+    <sheetView zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1230,7 +1294,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1241,4 +1305,88 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="jhgbvc@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="zxcvb@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="fgsyxsh@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="dxbgdjh@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="dhvd@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="dhbxhdxh@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>